--- a/scripts/hexEncodeDecode.xlsx
+++ b/scripts/hexEncodeDecode.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim\Documents\GitHub\RobotSim2020\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDB4A48E-35D6-4009-AFDF-437B767215E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A91FFE09-49CC-46F1-A5AF-303BC558E56B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4425" yWindow="2100" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{B7D41C42-E718-4DC0-BC84-3E0C676191AB}"/>
+    <workbookView xWindow="360" yWindow="795" windowWidth="21600" windowHeight="14085" activeTab="2" xr2:uid="{B7D41C42-E718-4DC0-BC84-3E0C676191AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Source" sheetId="1" r:id="rId1"/>
@@ -28,15 +28,10 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1575,8 +1570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08065ACE-FCA2-4053-BC00-D39D2A65481A}">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1664,7 +1659,7 @@
         <v>777</v>
       </c>
       <c r="H2" t="str">
-        <f t="shared" ref="H2:M20" si="0">RIGHT(DEC2HEX(A2,4),4)</f>
+        <f t="shared" ref="H2:L20" si="0">RIGHT(DEC2HEX(A2,4),4)</f>
         <v>2800</v>
       </c>
       <c r="I2" t="str">
@@ -2673,8 +2668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4E5BD78-3B5B-45D9-A8D1-288AE1D31AF5}">
   <dimension ref="A1:X20"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Z11" sqref="Z11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2717,7 +2712,7 @@
         <v>-10240</v>
       </c>
       <c r="I1">
-        <f t="shared" ref="I1:N1" si="0">IF(HEX2DEC(B1)&gt;32767,HEX2DEC(B1)-65536,HEX2DEC(B1))</f>
+        <f t="shared" ref="I1:M1" si="0">IF(HEX2DEC(B1)&gt;32767,HEX2DEC(B1)-65536,HEX2DEC(B1))</f>
         <v>-5760</v>
       </c>
       <c r="J1">
